--- a/Estatistico_WS.xlsx
+++ b/Estatistico_WS.xlsx
@@ -19,22 +19,22 @@
     <t>WS</t>
   </si>
   <si>
-    <t>28.0</t>
-  </si>
-  <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>43172.0</t>
+    <t>1308.0</t>
+  </si>
+  <si>
+    <t>41892.0</t>
   </si>
   <si>
     <t>%</t>
   </si>
   <si>
-    <t>0.0006481481481481481</t>
-  </si>
-  <si>
-    <t>0.9993518518518518</t>
+    <t>0.03027777777777778</t>
+  </si>
+  <si>
+    <t>0.9697222222222223</t>
   </si>
 </sst>
 </file>
@@ -385,15 +385,15 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -401,15 +401,15 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
